--- a/用例数据/沪A/各种证券变动/00X/场景.xlsx
+++ b/用例数据/沪A/各种证券变动/00X/场景.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\焦振鹏\Desktop\各种业务\新建文件夹\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\source\用例数据\沪A\各种证券变动\00X\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C8DFF9D-89E3-4705-81E4-08AFF9C1493F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -77,7 +76,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
@@ -557,19 +556,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -597,7 +596,7 @@
       <c r="M1" s="10"/>
       <c r="N1" s="11"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
       <c r="B2" s="8"/>
       <c r="C2" s="2" t="s">
@@ -637,7 +636,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -684,7 +683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -731,7 +730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -778,7 +777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -825,7 +824,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
